--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elemental\vindenatt.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vindenatt.github.io-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1CAC05-1E74-4069-8DA1-FB80A720FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>0-99</t>
   </si>
@@ -127,31 +126,33 @@
   </si>
   <si>
     <t>09 Miho</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10 Andrew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -160,7 +161,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -169,7 +170,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -177,7 +178,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -244,9 +245,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="計算" xfId="2" builtinId="22"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="1" builtinId="26"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,21 +524,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
-    <col min="3" max="8" width="14.75" customWidth="1"/>
+    <col min="3" max="8" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -559,7 +560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +577,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -589,7 +590,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +603,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -615,7 +616,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -628,7 +629,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -641,7 +642,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -654,7 +655,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -667,7 +668,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -680,18 +681,20 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(TEXT(100*(ROW()-2),"######"),"-",TEXT(100*(ROW()-2)+99,"######"))</f>
         <v>1000-1099</v>
@@ -703,7 +706,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" t="str">
         <f t="shared" ref="A13:A30" si="0">_xlfn.CONCAT(TEXT(100*(ROW()-2),"######"),"-",TEXT(100*(ROW()-2)+99,"######"))</f>
         <v>1100-1199</v>
@@ -715,7 +718,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>1200-1299</v>
@@ -727,7 +730,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>1300-1399</v>
@@ -739,7 +742,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>1400-1499</v>
@@ -751,7 +754,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>1500-1599</v>
@@ -763,7 +766,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>1600-1699</v>
@@ -775,7 +778,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>1700-1799</v>
@@ -787,7 +790,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>1800-1899</v>
@@ -799,7 +802,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>1900-1999</v>
@@ -811,7 +814,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2000-2099</v>
@@ -823,7 +826,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2100-2199</v>
@@ -835,7 +838,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2200-2299</v>
@@ -847,7 +850,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2300-2399</v>
@@ -859,7 +862,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2400-2499</v>
@@ -871,7 +874,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2500-2599</v>
@@ -883,7 +886,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2600-2699</v>
@@ -895,13 +898,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2700-2799</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2800-2899</v>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>0-99</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>10 Andrew</t>
+  </si>
+  <si>
+    <t>11 Andrew</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -685,7 +688,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1"/>
@@ -699,7 +702,9 @@
         <f>_xlfn.CONCAT(TEXT(100*(ROW()-2),"######"),"-",TEXT(100*(ROW()-2)+99,"######"))</f>
         <v>1000-1099</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vindenatt.github.io-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elemental\vindenatt.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF1FD6F-12B1-45FB-BB7D-BA3A032CA5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>0-99</t>
   </si>
@@ -132,30 +133,34 @@
   </si>
   <si>
     <t>11 Andrew</t>
+  </si>
+  <si>
+    <t>12 Andrew</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,7 +169,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -173,7 +178,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -181,13 +186,21 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +215,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,14 +247,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -246,11 +267,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
+    <cellStyle name="計算" xfId="2" builtinId="22"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,21 +550,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
-    <col min="3" max="8" width="14.77734375" customWidth="1"/>
+    <col min="3" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -563,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -580,7 +603,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +616,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -606,7 +629,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -619,7 +642,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -632,7 +655,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -645,7 +668,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -658,7 +681,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -671,7 +694,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -684,7 +707,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -697,12 +720,12 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(TEXT(100*(ROW()-2),"######"),"-",TEXT(100*(ROW()-2)+99,"######"))</f>
         <v>1000-1099</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1"/>
@@ -711,19 +734,21 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f t="shared" ref="A13:A30" si="0">_xlfn.CONCAT(TEXT(100*(ROW()-2),"######"),"-",TEXT(100*(ROW()-2)+99,"######"))</f>
         <v>1100-1199</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>1200-1299</v>
@@ -735,7 +760,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>1300-1399</v>
@@ -747,7 +772,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>1400-1499</v>
@@ -759,7 +784,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>1500-1599</v>
@@ -771,7 +796,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>1600-1699</v>
@@ -783,7 +808,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>1700-1799</v>
@@ -795,7 +820,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>1800-1899</v>
@@ -807,7 +832,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>1900-1999</v>
@@ -819,7 +844,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2000-2099</v>
@@ -831,7 +856,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2100-2199</v>
@@ -843,7 +868,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2200-2299</v>
@@ -855,7 +880,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2300-2399</v>
@@ -867,7 +892,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2400-2499</v>
@@ -879,7 +904,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2500-2599</v>
@@ -891,7 +916,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2600-2699</v>
@@ -903,13 +928,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2700-2799</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2800-2899</v>
